--- a/Control Lab 4.xlsx
+++ b/Control Lab 4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932EEC7-52EF-4D01-BC4B-13F734596461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD7D98-5521-4919-9351-9CA1BA005C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open loop characteristics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -251,51 +262,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,26 +521,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="true" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.82421875" customWidth="true"/>
-    <col min="2" max="2" width="4.82421875" customWidth="true"/>
-    <col min="4" max="4" width="5.48828125" customWidth="true"/>
-    <col min="3" max="3" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="12.82421875" customWidth="true"/>
-    <col min="6" max="6" width="11.82421875" customWidth="true"/>
-    <col min="7" max="7" width="13.48828125" customWidth="true"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="3" width="4.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>85</v>
       </c>
@@ -577,7 +585,7 @@
         <v>3.5040817805018118</v>
       </c>
     </row>
-    <row r="3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>90</v>
       </c>
@@ -588,7 +596,7 @@
         <v>1.25</v>
       </c>
       <c r="D3" s="8">
-        <v>73.799999999999997</v>
+        <v>73.8</v>
       </c>
       <c r="E3" s="14">
         <v>1.3297872340425532</v>
@@ -600,7 +608,7 @@
         <v>5.7003791006459439</v>
       </c>
     </row>
-    <row r="4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>95</v>
       </c>
@@ -611,7 +619,7 @@
         <v>1.24</v>
       </c>
       <c r="D4" s="8">
-        <v>62.899999999999999</v>
+        <v>62.9</v>
       </c>
       <c r="E4" s="14">
         <v>1.3191489361702127</v>
@@ -623,18 +631,18 @@
         <v>5.5397356667006576</v>
       </c>
     </row>
-    <row r="5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="3">
         <v>1.3</v>
       </c>
       <c r="D5" s="8">
-        <v>60.200000000000003</v>
+        <v>60.2</v>
       </c>
       <c r="E5" s="14">
         <v>1.3541666666666667</v>
@@ -646,7 +654,7 @@
         <v>6.0637251797549254</v>
       </c>
     </row>
-    <row r="6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>110</v>
       </c>
@@ -654,10 +662,10 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="C6" s="3">
-        <v>1.3200000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="D6" s="8">
-        <v>58.899999999999999</v>
+        <v>58.9</v>
       </c>
       <c r="E6" s="14">
         <v>1.4042553191489362</v>
@@ -669,7 +677,7 @@
         <v>6.7901428063273395</v>
       </c>
     </row>
-    <row r="7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>126.5</v>
       </c>
@@ -677,10 +685,10 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="C7" s="3">
-        <v>1.3600000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="D7" s="8">
-        <v>41.799999999999997</v>
+        <v>41.8</v>
       </c>
       <c r="E7" s="14">
         <v>1.446808510638298</v>
@@ -692,18 +700,18 @@
         <v>7.3872020693209635</v>
       </c>
     </row>
-    <row r="8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>131.59999999999999</v>
+        <v>131.6</v>
       </c>
       <c r="B8" s="3">
         <v>0.94000000000000006</v>
       </c>
       <c r="C8" s="3">
-        <v>1.3700000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="D8" s="8">
-        <v>38.100000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="E8" s="14">
         <v>1.4574468085106382</v>
@@ -715,7 +723,7 @@
         <v>7.5337228711624196</v>
       </c>
     </row>
-    <row r="9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>153</v>
       </c>
@@ -723,7 +731,7 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="C9" s="3">
-        <v>1.4199999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="D9" s="8">
         <v>27.5</v>
@@ -738,7 +746,7 @@
         <v>8.0390033200143947</v>
       </c>
     </row>
-    <row r="10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>175</v>
       </c>
@@ -746,7 +754,7 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="C10" s="3">
-        <v>1.3799999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="D10" s="8">
         <v>15.1</v>
@@ -761,7 +769,7 @@
         <v>7.4675358711332755</v>
       </c>
     </row>
-    <row r="11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>194</v>
       </c>
@@ -769,10 +777,10 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="C11" s="3">
-        <v>1.3400000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="D11" s="8">
-        <v>8.3399999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="E11" s="14">
         <v>1.4105263157894736</v>
@@ -784,18 +792,18 @@
         <v>6.8792581670074089</v>
       </c>
     </row>
-    <row r="12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>200</v>
       </c>
       <c r="B12" s="3">
-        <v>0.92000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="C12" s="3">
-        <v>1.3200000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="D12" s="8">
-        <v>8.6099999999999994</v>
+        <v>8.61</v>
       </c>
       <c r="E12" s="14">
         <v>1.4347826086956521</v>
@@ -807,18 +815,18 @@
         <v>7.2202669107466102</v>
       </c>
     </row>
-    <row r="13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>210</v>
       </c>
       <c r="B13" s="3">
-        <v>0.92000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="C13" s="3">
         <v>1.28</v>
       </c>
       <c r="D13" s="8">
-        <v>3.0499999999999998</v>
+        <v>3.05</v>
       </c>
       <c r="E13" s="14">
         <v>1.3913043478260869</v>
@@ -830,7 +838,7 @@
         <v>6.6048337374115365</v>
       </c>
     </row>
-    <row r="14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>220</v>
       </c>
@@ -853,12 +861,12 @@
         <v>5.5397356667006576</v>
       </c>
     </row>
-    <row r="15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>234</v>
       </c>
       <c r="B15" s="3">
-        <v>0.92000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="C15" s="3">
         <v>1.22</v>
@@ -876,7 +884,7 @@
         <v>5.6446493536843239</v>
       </c>
     </row>
-    <row r="16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>250</v>
       </c>
@@ -887,7 +895,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="D16" s="8">
-        <v>-5.3700000000000001</v>
+        <v>-5.37</v>
       </c>
       <c r="E16" s="14">
         <v>1.2340425531914891</v>
@@ -899,18 +907,18 @@
         <v>4.2059081767272115</v>
       </c>
     </row>
-    <row r="17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>275</v>
       </c>
       <c r="B17" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C17" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="D17" s="8">
-        <v>-7.8300000000000001</v>
+        <v>-7.83</v>
       </c>
       <c r="E17" s="14">
         <v>1.1458333333333335</v>
@@ -922,15 +930,15 @@
         <v>2.7226434864916023</v>
       </c>
     </row>
-    <row r="18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>300</v>
       </c>
       <c r="B18" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C18" s="3">
-        <v>1.0600000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="D18" s="8">
         <v>-8.6199999999999992</v>
@@ -945,15 +953,15 @@
         <v>1.9818180528846194</v>
       </c>
     </row>
-    <row r="19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>360</v>
       </c>
       <c r="B19" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C19" s="3">
-        <v>1.0600000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="D19" s="8">
         <v>-10.199999999999999</v>
@@ -968,15 +976,15 @@
         <v>1.9818180528846194</v>
       </c>
     </row>
-    <row r="20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>400</v>
       </c>
       <c r="B20" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C20" s="3">
-        <v>1.1799999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="D20" s="8">
         <v>-9.6300000000000008</v>
@@ -991,18 +999,18 @@
         <v>4.126728659956572</v>
       </c>
     </row>
-    <row r="21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>450</v>
       </c>
       <c r="B21" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C21" s="3">
         <v>1.28</v>
       </c>
       <c r="D21" s="8">
-        <v>-30.800000000000001</v>
+        <v>-30.8</v>
       </c>
       <c r="E21" s="14">
         <v>1.3333333333333335</v>
@@ -1014,12 +1022,12 @@
         <v>5.7536414490356202</v>
       </c>
     </row>
-    <row r="22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>500</v>
       </c>
       <c r="B22" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C22" s="3">
         <v>1.1200000000000001</v>
@@ -1037,12 +1045,12 @@
         <v>2.6706278524904552</v>
       </c>
     </row>
-    <row r="23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>550</v>
       </c>
       <c r="B23" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C23" s="3">
         <v>1.02</v>
@@ -1060,12 +1068,12 @@
         <v>1.2124924363286969</v>
       </c>
     </row>
-    <row r="24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>600</v>
       </c>
       <c r="B24" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C24" s="3">
         <v>0.95000000000000007</v>
@@ -1083,18 +1091,18 @@
         <v>-0.20942599734590508</v>
       </c>
     </row>
-    <row r="25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>650</v>
       </c>
       <c r="B25" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C25" s="3">
         <v>0.88</v>
       </c>
       <c r="D25" s="8">
-        <v>-50.399999999999999</v>
+        <v>-50.4</v>
       </c>
       <c r="E25" s="14">
         <v>0.91666666666666674</v>
@@ -1106,18 +1114,18 @@
         <v>-1.7402275397925937</v>
       </c>
     </row>
-    <row r="26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>700</v>
       </c>
       <c r="B26" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C26" s="3">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="D26" s="8">
-        <v>-44.600000000000001</v>
+        <v>-44.6</v>
       </c>
       <c r="E26" s="14">
         <v>0.83333333333333337</v>
@@ -1129,7 +1137,7 @@
         <v>-3.6464311358790917</v>
       </c>
     </row>
-    <row r="27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>750</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>0.82000000000000006</v>
       </c>
       <c r="D27" s="8">
-        <v>-50.600000000000001</v>
+        <v>-50.6</v>
       </c>
       <c r="E27" s="14">
         <v>0.87234042553191493</v>
@@ -1152,18 +1160,18 @@
         <v>-2.7315107001150145</v>
       </c>
     </row>
-    <row r="28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>800</v>
       </c>
       <c r="B28" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C28" s="3">
-        <v>0.76000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="D28" s="8">
-        <v>-46.200000000000003</v>
+        <v>-46.2</v>
       </c>
       <c r="E28" s="14">
         <v>0.79166666666666674</v>
@@ -1175,18 +1183,18 @@
         <v>-4.6722970236301018</v>
       </c>
     </row>
-    <row r="29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>850</v>
       </c>
       <c r="B29" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C29" s="3">
-        <v>0.73999999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="D29" s="8">
-        <v>-48.799999999999997</v>
+        <v>-48.8</v>
       </c>
       <c r="E29" s="14">
         <v>0.77083333333333337</v>
@@ -1198,18 +1206,18 @@
         <v>-5.205661965273328</v>
       </c>
     </row>
-    <row r="30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>900</v>
       </c>
       <c r="B30" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C30" s="3">
-        <v>0.78000000000000003</v>
+        <v>0.78</v>
       </c>
       <c r="D30" s="8">
-        <v>-46.200000000000003</v>
+        <v>-46.2</v>
       </c>
       <c r="E30" s="14">
         <v>0.81250000000000011</v>
@@ -1221,7 +1229,7 @@
         <v>-4.1527872955648872</v>
       </c>
     </row>
-    <row r="31" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>950</v>
       </c>
@@ -1229,10 +1237,10 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="C31" s="3">
-        <v>0.76000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="D31" s="8">
-        <v>-52.799999999999997</v>
+        <v>-52.8</v>
       </c>
       <c r="E31" s="14">
         <v>0.80851063829787229</v>
@@ -1244,7 +1252,7 @@
         <v>-4.2512288396734572</v>
       </c>
     </row>
-    <row r="32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1000</v>
       </c>
@@ -1252,10 +1260,10 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="C32" s="3">
-        <v>0.76000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="D32" s="8">
-        <v>-54.700000000000003</v>
+        <v>-54.7</v>
       </c>
       <c r="E32" s="14">
         <v>0.79999999999999993</v>
@@ -1267,18 +1275,18 @@
         <v>-4.4628710262841969</v>
       </c>
     </row>
-    <row r="33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1215</v>
       </c>
       <c r="B33" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C33" s="3">
         <v>0.75</v>
       </c>
       <c r="D33" s="8">
-        <v>-53.700000000000003</v>
+        <v>-53.7</v>
       </c>
       <c r="E33" s="14">
         <v>0.78125</v>
@@ -1290,18 +1298,18 @@
         <v>-4.937201558630516</v>
       </c>
     </row>
-    <row r="34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1500</v>
       </c>
       <c r="B34" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C34" s="3">
-        <v>0.89000000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="D34" s="8">
-        <v>-62.399999999999999</v>
+        <v>-62.4</v>
       </c>
       <c r="E34" s="14">
         <v>0.92708333333333337</v>
@@ -1313,15 +1321,15 @@
         <v>-1.5142364347139272</v>
       </c>
     </row>
-    <row r="35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1753</v>
       </c>
       <c r="B35" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C35" s="3">
-        <v>0.85999999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="D35" s="8">
         <v>-77.5</v>
@@ -1336,18 +1344,18 @@
         <v>-2.2000179042865691</v>
       </c>
     </row>
-    <row r="36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1875</v>
       </c>
       <c r="B36" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C36" s="3">
-        <v>0.85999999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="D36" s="8">
-        <v>-79.799999999999997</v>
+        <v>-79.8</v>
       </c>
       <c r="E36" s="14">
         <v>0.87755102040816324</v>
@@ -1359,18 +1367,18 @@
         <v>-2.6124036483412842</v>
       </c>
     </row>
-    <row r="37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2060</v>
       </c>
       <c r="B37" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C37" s="3">
-        <v>0.92000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="D37" s="8">
-        <v>-90.400000000000006</v>
+        <v>-90.4</v>
       </c>
       <c r="E37" s="14">
         <v>0.95833333333333337</v>
@@ -1382,18 +1390,18 @@
         <v>-0.85119228837591776</v>
       </c>
     </row>
-    <row r="38" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2132</v>
       </c>
       <c r="B38" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C38" s="3">
-        <v>0.98999999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="D38" s="8">
-        <v>-99.400000000000006</v>
+        <v>-99.4</v>
       </c>
       <c r="E38" s="14">
         <v>1.010204081632653</v>
@@ -1405,15 +1413,15 @@
         <v>0.20304742928035815</v>
       </c>
     </row>
-    <row r="39" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2386</v>
       </c>
       <c r="B39" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C39" s="3">
-        <v>1.0600000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="D39" s="8">
         <v>-114</v>
@@ -1428,12 +1436,12 @@
         <v>1.569432308829906</v>
       </c>
     </row>
-    <row r="40" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2600</v>
       </c>
       <c r="B40" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C40" s="3">
         <v>1.1000000000000001</v>
@@ -1451,12 +1459,12 @@
         <v>2.7226434864916023</v>
       </c>
     </row>
-    <row r="41" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2900</v>
       </c>
       <c r="B41" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C41" s="3">
         <v>1.3</v>
@@ -1474,15 +1482,15 @@
         <v>6.0637251797549254</v>
       </c>
     </row>
-    <row r="42" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>3065</v>
       </c>
       <c r="B42" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C42" s="3">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="D42" s="8">
         <v>-160</v>
@@ -1497,12 +1505,12 @@
         <v>7.1334988787746481</v>
       </c>
     </row>
-    <row r="43" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>3121</v>
       </c>
       <c r="B43" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C43" s="3">
         <v>1.52</v>
@@ -1520,12 +1528,12 @@
         <v>9.1906465875688053</v>
       </c>
     </row>
-    <row r="44" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>3148</v>
       </c>
       <c r="B44" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C44" s="3">
         <v>1.46</v>
@@ -1543,15 +1551,15 @@
         <v>8.3851686048100031</v>
       </c>
     </row>
-    <row r="45" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>3178</v>
       </c>
       <c r="B45" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C45" s="3">
-        <v>1.5600000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="D45" s="8">
         <v>-172</v>
@@ -1566,15 +1574,15 @@
         <v>9.2977705715793029</v>
       </c>
     </row>
-    <row r="46" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>3200</v>
       </c>
       <c r="B46" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C46" s="3">
-        <v>1.5800000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="D46" s="8">
         <v>-175</v>
@@ -1589,12 +1597,12 @@
         <v>9.5525510871278989</v>
       </c>
     </row>
-    <row r="47" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>3220</v>
       </c>
       <c r="B47" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C47" s="3">
         <v>1.54</v>
@@ -1612,7 +1620,7 @@
         <v>9.0397024748611443</v>
       </c>
     </row>
-    <row r="48" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>3224</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>1.52</v>
       </c>
       <c r="D48" s="8">
-        <v>177</v>
+        <v>-183</v>
       </c>
       <c r="E48" s="14">
         <v>1.52</v>
@@ -1635,12 +1643,12 @@
         <v>8.3742066971637001</v>
       </c>
     </row>
-    <row r="49" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>3235</v>
       </c>
       <c r="B49" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C49" s="3">
         <v>1.54</v>
@@ -1658,12 +1666,12 @@
         <v>9.0397024748611443</v>
       </c>
     </row>
-    <row r="50" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>3240</v>
       </c>
       <c r="B50" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C50" s="3">
         <v>1.54</v>
@@ -1681,18 +1689,18 @@
         <v>9.0397024748611443</v>
       </c>
     </row>
-    <row r="51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>3243</v>
       </c>
       <c r="B51" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C51" s="3">
         <v>1.54</v>
       </c>
       <c r="D51" s="8">
-        <v>178</v>
+        <v>-182</v>
       </c>
       <c r="E51" s="14">
         <v>1.6041666666666667</v>
@@ -1704,18 +1712,18 @@
         <v>9.4520882189158595</v>
       </c>
     </row>
-    <row r="52" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>3250</v>
       </c>
       <c r="B52" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C52" s="3">
-        <v>1.5600000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="D52" s="8">
-        <v>177</v>
+        <v>-183</v>
       </c>
       <c r="E52" s="14">
         <v>1.5918367346938775</v>
@@ -1727,7 +1735,7 @@
         <v>9.2977705715793029</v>
       </c>
     </row>
-    <row r="53" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>3264</v>
       </c>
@@ -1735,13 +1743,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="3">
-        <v>1.5600000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="D53" s="8">
-        <v>173</v>
+        <v>-187</v>
       </c>
       <c r="E53" s="14">
-        <v>1.5600000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="F53" s="10">
         <v>161.81417432167993</v>
@@ -1750,7 +1758,7 @@
         <v>8.8937164252289147</v>
       </c>
     </row>
-    <row r="54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>3313</v>
       </c>
@@ -1758,13 +1766,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="3">
-        <v>1.6200000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="D54" s="8">
-        <v>167</v>
+        <v>-193</v>
       </c>
       <c r="E54" s="14">
-        <v>1.6200000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="F54" s="10">
         <v>162.11218804599793</v>
@@ -1773,18 +1781,18 @@
         <v>9.6485229848858562</v>
       </c>
     </row>
-    <row r="55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>3400</v>
       </c>
       <c r="B55" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C55" s="3">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D55" s="8">
-        <v>159</v>
+        <v>-201</v>
       </c>
       <c r="E55" s="14">
         <v>1.6326530612244898</v>
@@ -1796,18 +1804,18 @@
         <v>9.8041267312651001</v>
       </c>
     </row>
-    <row r="56" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>3500</v>
       </c>
       <c r="B56" s="3">
-        <v>0.97999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="C56" s="3">
         <v>1.52</v>
       </c>
       <c r="D56" s="8">
-        <v>141</v>
+        <v>-219</v>
       </c>
       <c r="E56" s="14">
         <v>1.5510204081632653</v>
@@ -1819,18 +1827,18 @@
         <v>8.7782608435140883</v>
       </c>
     </row>
-    <row r="57" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>3700</v>
       </c>
       <c r="B57" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C57" s="3">
-        <v>1.3400000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="D57" s="8">
-        <v>117</v>
+        <v>-243</v>
       </c>
       <c r="E57" s="14">
         <v>1.3958333333333335</v>
@@ -1842,18 +1850,18 @@
         <v>6.6698321696615048</v>
       </c>
     </row>
-    <row r="58" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>3988</v>
       </c>
       <c r="B58" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C58" s="3">
-        <v>0.83999999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="D58" s="8">
-        <v>71.099999999999994</v>
+        <v>-288.89999999999998</v>
       </c>
       <c r="E58" s="14">
         <v>0.875</v>
@@ -1865,18 +1873,18 @@
         <v>-2.6706278524904525</v>
       </c>
     </row>
-    <row r="59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4203</v>
       </c>
       <c r="B59" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C59" s="3">
         <v>0.62</v>
       </c>
       <c r="D59" s="8">
-        <v>68</v>
+        <v>-292</v>
       </c>
       <c r="E59" s="14">
         <v>0.64583333333333337</v>
@@ -1888,18 +1896,18 @@
         <v>-8.7442761284548922</v>
       </c>
     </row>
-    <row r="60" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4531</v>
       </c>
       <c r="B60" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C60" s="3">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D60" s="8">
-        <v>36.100000000000001</v>
+        <v>-323</v>
       </c>
       <c r="E60" s="14">
         <v>0.33333333333333337</v>
@@ -1911,18 +1919,18 @@
         <v>-21.972245773362189</v>
       </c>
     </row>
-    <row r="61" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>4716</v>
       </c>
       <c r="B61" s="3">
-        <v>0.95999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="C61" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="8">
-        <v>20.600000000000001</v>
+        <v>-339</v>
       </c>
       <c r="E61" s="14">
         <v>0.29166666666666669</v>
@@ -1934,7 +1942,7 @@
         <v>-24.642873625852644</v>
       </c>
     </row>
-    <row r="62" ht="13.8" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>5000</v>
       </c>
@@ -1945,7 +1953,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D62" s="9">
-        <v>3.3300000000000001</v>
+        <v>-356.67</v>
       </c>
       <c r="E62" s="15">
         <v>0.14893617021276595</v>
@@ -1957,8 +1965,8 @@
         <v>-38.08474905309491</v>
       </c>
     </row>
-    <row r="63" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
